--- a/catalogsList/05072021/subforestry.xlsx
+++ b/catalogsList/05072021/subforestry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="789">
   <si>
     <t>id</t>
   </si>
@@ -1021,6 +1021,1368 @@
   </si>
   <si>
     <t>subjectId</t>
+  </si>
+  <si>
+    <t>G_U4936</t>
+  </si>
+  <si>
+    <t>G_00744</t>
+  </si>
+  <si>
+    <t>Аланское</t>
+  </si>
+  <si>
+    <t>G_U4782</t>
+  </si>
+  <si>
+    <t>G_00712</t>
+  </si>
+  <si>
+    <t>Аллинское</t>
+  </si>
+  <si>
+    <t>G_U4753</t>
+  </si>
+  <si>
+    <t>G_00706</t>
+  </si>
+  <si>
+    <t>Ангоянское</t>
+  </si>
+  <si>
+    <t>G_U4855</t>
+  </si>
+  <si>
+    <t>G_00725</t>
+  </si>
+  <si>
+    <t>Ангырское</t>
+  </si>
+  <si>
+    <t>P_422</t>
+  </si>
+  <si>
+    <t>P_111</t>
+  </si>
+  <si>
+    <t>Арангатуйское</t>
+  </si>
+  <si>
+    <t>G_U4873</t>
+  </si>
+  <si>
+    <t>G_00730</t>
+  </si>
+  <si>
+    <t>Аргадинское</t>
+  </si>
+  <si>
+    <t>P_430</t>
+  </si>
+  <si>
+    <t>P_113</t>
+  </si>
+  <si>
+    <t>Аршанское</t>
+  </si>
+  <si>
+    <t>P_795</t>
+  </si>
+  <si>
+    <t>P_226</t>
+  </si>
+  <si>
+    <t>G_U4757</t>
+  </si>
+  <si>
+    <t>G_00708</t>
+  </si>
+  <si>
+    <t>Бабушкинское</t>
+  </si>
+  <si>
+    <t>G_U4790</t>
+  </si>
+  <si>
+    <t>G_00713</t>
+  </si>
+  <si>
+    <t>Багдаринское</t>
+  </si>
+  <si>
+    <t>G_U4842</t>
+  </si>
+  <si>
+    <t>G_00723</t>
+  </si>
+  <si>
+    <t>Байкало-Кударинское</t>
+  </si>
+  <si>
+    <t>G_U4911</t>
+  </si>
+  <si>
+    <t>G_00737</t>
+  </si>
+  <si>
+    <t>Байкальское</t>
+  </si>
+  <si>
+    <t>G_U4762</t>
+  </si>
+  <si>
+    <t>G_00707</t>
+  </si>
+  <si>
+    <t>G_U4885</t>
+  </si>
+  <si>
+    <t>G_00732</t>
+  </si>
+  <si>
+    <t>Бамбуйское</t>
+  </si>
+  <si>
+    <t>G_U4767</t>
+  </si>
+  <si>
+    <t>G_00709</t>
+  </si>
+  <si>
+    <t>Баргузинское</t>
+  </si>
+  <si>
+    <t>G_U4772</t>
+  </si>
+  <si>
+    <t>Баргузинское сельское</t>
+  </si>
+  <si>
+    <t>G_U4791</t>
+  </si>
+  <si>
+    <t>Баунтовское</t>
+  </si>
+  <si>
+    <t>G_U4821</t>
+  </si>
+  <si>
+    <t>G_00719</t>
+  </si>
+  <si>
+    <t>Баянгольское</t>
+  </si>
+  <si>
+    <t>G_U4867</t>
+  </si>
+  <si>
+    <t>G_00728</t>
+  </si>
+  <si>
+    <t>G_U4920</t>
+  </si>
+  <si>
+    <t>G_00739</t>
+  </si>
+  <si>
+    <t>Березовское</t>
+  </si>
+  <si>
+    <t>P_425</t>
+  </si>
+  <si>
+    <t>P_112</t>
+  </si>
+  <si>
+    <t>Биосферный полигон</t>
+  </si>
+  <si>
+    <t>G_U4773</t>
+  </si>
+  <si>
+    <t>G_00710</t>
+  </si>
+  <si>
+    <t>Бичурское</t>
+  </si>
+  <si>
+    <t>G_U4777</t>
+  </si>
+  <si>
+    <t>Бичурское сельское</t>
+  </si>
+  <si>
+    <t>G_U4878</t>
+  </si>
+  <si>
+    <t>G_00731</t>
+  </si>
+  <si>
+    <t>Большелугское</t>
+  </si>
+  <si>
+    <t>G_U4843</t>
+  </si>
+  <si>
+    <t>Большереченское</t>
+  </si>
+  <si>
+    <t>G_U4931</t>
+  </si>
+  <si>
+    <t>G_00743</t>
+  </si>
+  <si>
+    <t>Брянское</t>
+  </si>
+  <si>
+    <t>G_U4778</t>
+  </si>
+  <si>
+    <t>G_00711</t>
+  </si>
+  <si>
+    <t>Буйское</t>
+  </si>
+  <si>
+    <t>G_U4792</t>
+  </si>
+  <si>
+    <t>Варваринское</t>
+  </si>
+  <si>
+    <t>G_U4923</t>
+  </si>
+  <si>
+    <t>G_00741</t>
+  </si>
+  <si>
+    <t>Верхне-Ангарское</t>
+  </si>
+  <si>
+    <t>G_U4921</t>
+  </si>
+  <si>
+    <t>Верхне-Березовское</t>
+  </si>
+  <si>
+    <t>G_U4912</t>
+  </si>
+  <si>
+    <t>Верхне-Заимское</t>
+  </si>
+  <si>
+    <t>G_U4856</t>
+  </si>
+  <si>
+    <t>Верхне-Итанцинское</t>
+  </si>
+  <si>
+    <t>G_U4869</t>
+  </si>
+  <si>
+    <t>G_00729</t>
+  </si>
+  <si>
+    <t>Верхне-Курбинское</t>
+  </si>
+  <si>
+    <t>G_U4937</t>
+  </si>
+  <si>
+    <t>Верхне-Онинское</t>
+  </si>
+  <si>
+    <t>G_U4907</t>
+  </si>
+  <si>
+    <t>G_00736</t>
+  </si>
+  <si>
+    <t>Витимское</t>
+  </si>
+  <si>
+    <t>G_U4891</t>
+  </si>
+  <si>
+    <t>P_764</t>
+  </si>
+  <si>
+    <t>P_210</t>
+  </si>
+  <si>
+    <t>Водолечебница «Хакусы»</t>
+  </si>
+  <si>
+    <t>G_U4758</t>
+  </si>
+  <si>
+    <t>Выдринское</t>
+  </si>
+  <si>
+    <t>G_U4874</t>
+  </si>
+  <si>
+    <t>Гаргинское</t>
+  </si>
+  <si>
+    <t>G_U4893</t>
+  </si>
+  <si>
+    <t>G_00733</t>
+  </si>
+  <si>
+    <t>Гашейское</t>
+  </si>
+  <si>
+    <t>G_U4836</t>
+  </si>
+  <si>
+    <t>G_00722</t>
+  </si>
+  <si>
+    <t>Гильбиринское</t>
+  </si>
+  <si>
+    <t>G_U4763</t>
+  </si>
+  <si>
+    <t>Голондинское</t>
+  </si>
+  <si>
+    <t>G_U4932</t>
+  </si>
+  <si>
+    <t>Горхонское</t>
+  </si>
+  <si>
+    <t>G_U4764</t>
+  </si>
+  <si>
+    <t>Горячинское</t>
+  </si>
+  <si>
+    <t>G_U4857</t>
+  </si>
+  <si>
+    <t>Гремячинское</t>
+  </si>
+  <si>
+    <t>G_U4807</t>
+  </si>
+  <si>
+    <t>G_00717</t>
+  </si>
+  <si>
+    <t>Гундинское</t>
+  </si>
+  <si>
+    <t>G_U4837</t>
+  </si>
+  <si>
+    <t>Гурульбинское</t>
+  </si>
+  <si>
+    <t>G_U4796</t>
+  </si>
+  <si>
+    <t>G_00715</t>
+  </si>
+  <si>
+    <t>Гусиноозёрское</t>
+  </si>
+  <si>
+    <t>G_U4927</t>
+  </si>
+  <si>
+    <t>G_00742</t>
+  </si>
+  <si>
+    <t>Гусихинское</t>
+  </si>
+  <si>
+    <t>G_U4924</t>
+  </si>
+  <si>
+    <t>Делакорское</t>
+  </si>
+  <si>
+    <t>G_U4801</t>
+  </si>
+  <si>
+    <t>G_00716</t>
+  </si>
+  <si>
+    <t>Джидинское</t>
+  </si>
+  <si>
+    <t>G_U4806</t>
+  </si>
+  <si>
+    <t>Джидинское сельское</t>
+  </si>
+  <si>
+    <t>G_U4908</t>
+  </si>
+  <si>
+    <t>Джилиндинское</t>
+  </si>
+  <si>
+    <t>G_U4783</t>
+  </si>
+  <si>
+    <t>Джиргинское</t>
+  </si>
+  <si>
+    <t>G_U4814</t>
+  </si>
+  <si>
+    <t>G_00718</t>
+  </si>
+  <si>
+    <t>Додогольское</t>
+  </si>
+  <si>
+    <t>G_U4784</t>
+  </si>
+  <si>
+    <t>Дыренское</t>
+  </si>
+  <si>
+    <t>G_U4808</t>
+  </si>
+  <si>
+    <t>Еравнинское</t>
+  </si>
+  <si>
+    <t>G_U4813</t>
+  </si>
+  <si>
+    <t>Еравнинское сельское</t>
+  </si>
+  <si>
+    <t>G_U4829</t>
+  </si>
+  <si>
+    <t>G_00721</t>
+  </si>
+  <si>
+    <t>Заводское</t>
+  </si>
+  <si>
+    <t>G_U4797</t>
+  </si>
+  <si>
+    <t>Загустайское</t>
+  </si>
+  <si>
+    <t>G_U4809</t>
+  </si>
+  <si>
+    <t>Зазинское</t>
+  </si>
+  <si>
+    <t>G_U4815</t>
+  </si>
+  <si>
+    <t>Заиграевское</t>
+  </si>
+  <si>
+    <t>G_U4820</t>
+  </si>
+  <si>
+    <t>Заиграевское сельское</t>
+  </si>
+  <si>
+    <t>G_U4822</t>
+  </si>
+  <si>
+    <t>Закаменское</t>
+  </si>
+  <si>
+    <t>G_U4828</t>
+  </si>
+  <si>
+    <t>Закаменское сельское</t>
+  </si>
+  <si>
+    <t>G_U4830</t>
+  </si>
+  <si>
+    <t>Заудинское</t>
+  </si>
+  <si>
+    <t>P_429</t>
+  </si>
+  <si>
+    <t>Зун-Муринское</t>
+  </si>
+  <si>
+    <t>G_U4938</t>
+  </si>
+  <si>
+    <t>Зун-Хурайское</t>
+  </si>
+  <si>
+    <t>G_U4838</t>
+  </si>
+  <si>
+    <t>Иволгинское</t>
+  </si>
+  <si>
+    <t>G_U4841</t>
+  </si>
+  <si>
+    <t>Иволгинское сельское</t>
+  </si>
+  <si>
+    <t>G_U4816</t>
+  </si>
+  <si>
+    <t>Илькинское</t>
+  </si>
+  <si>
+    <t>G_U4768</t>
+  </si>
+  <si>
+    <t>G_U4902</t>
+  </si>
+  <si>
+    <t>G_00735</t>
+  </si>
+  <si>
+    <t>Иркиликское</t>
+  </si>
+  <si>
+    <t>G_U4860</t>
+  </si>
+  <si>
+    <t>G_00726</t>
+  </si>
+  <si>
+    <t>Исингинское</t>
+  </si>
+  <si>
+    <t>G_U4903</t>
+  </si>
+  <si>
+    <t>Итанцинское</t>
+  </si>
+  <si>
+    <t>G_U4802</t>
+  </si>
+  <si>
+    <t>Ичетуйское</t>
+  </si>
+  <si>
+    <t>G_U4848</t>
+  </si>
+  <si>
+    <t>Кабанское сельское</t>
+  </si>
+  <si>
+    <t>G_U4839</t>
+  </si>
+  <si>
+    <t>Каленовское</t>
+  </si>
+  <si>
+    <t>G_U4894</t>
+  </si>
+  <si>
+    <t>Калиновское</t>
+  </si>
+  <si>
+    <t>G_U4844</t>
+  </si>
+  <si>
+    <t>Каменское</t>
+  </si>
+  <si>
+    <t>G_U4786</t>
+  </si>
+  <si>
+    <t>G_00714</t>
+  </si>
+  <si>
+    <t>Карбаиновское</t>
+  </si>
+  <si>
+    <t>G_U4849</t>
+  </si>
+  <si>
+    <t>G_00724</t>
+  </si>
+  <si>
+    <t>Кижингинское</t>
+  </si>
+  <si>
+    <t>G_U4854</t>
+  </si>
+  <si>
+    <t>Кижингинское сельское</t>
+  </si>
+  <si>
+    <t>G_U4858</t>
+  </si>
+  <si>
+    <t>Кикинское</t>
+  </si>
+  <si>
+    <t>G_U4774</t>
+  </si>
+  <si>
+    <t>Киретское</t>
+  </si>
+  <si>
+    <t>G_U4754</t>
+  </si>
+  <si>
+    <t>Киронское</t>
+  </si>
+  <si>
+    <t>G_U4759</t>
+  </si>
+  <si>
+    <t>Клюевское</t>
+  </si>
+  <si>
+    <t>G_U4861</t>
+  </si>
+  <si>
+    <t>Кондинское</t>
+  </si>
+  <si>
+    <t>G_U4755</t>
+  </si>
+  <si>
+    <t>Котерское</t>
+  </si>
+  <si>
+    <t>G_U4765</t>
+  </si>
+  <si>
+    <t>Котокельское</t>
+  </si>
+  <si>
+    <t>G_U4879</t>
+  </si>
+  <si>
+    <t>Кударинское</t>
+  </si>
+  <si>
+    <t>G_U4785</t>
+  </si>
+  <si>
+    <t>Куллукское</t>
+  </si>
+  <si>
+    <t>G_U4756</t>
+  </si>
+  <si>
+    <t>Куморское</t>
+  </si>
+  <si>
+    <t>G_U4775</t>
+  </si>
+  <si>
+    <t>Куналейское</t>
+  </si>
+  <si>
+    <t>G_U4875</t>
+  </si>
+  <si>
+    <t>Курумканское</t>
+  </si>
+  <si>
+    <t>G_U4877</t>
+  </si>
+  <si>
+    <t>Курумканское сельское</t>
+  </si>
+  <si>
+    <t>G_U4909</t>
+  </si>
+  <si>
+    <t>Кыджимитское</t>
+  </si>
+  <si>
+    <t>P_428</t>
+  </si>
+  <si>
+    <t>Кыренское</t>
+  </si>
+  <si>
+    <t>G_U4880</t>
+  </si>
+  <si>
+    <t>Кяхтинское</t>
+  </si>
+  <si>
+    <t>G_U4884</t>
+  </si>
+  <si>
+    <t>Кяхтинское сельское</t>
+  </si>
+  <si>
+    <t>P_92</t>
+  </si>
+  <si>
+    <t>P_31</t>
+  </si>
+  <si>
+    <t>Кяхтинское участковое</t>
+  </si>
+  <si>
+    <t>G_U4850</t>
+  </si>
+  <si>
+    <t>Леоновское</t>
+  </si>
+  <si>
+    <t>P_758</t>
+  </si>
+  <si>
+    <t>Лесной участок  «Байкальский»</t>
+  </si>
+  <si>
+    <t>P_761</t>
+  </si>
+  <si>
+    <t>Лесной участок  «Верхнее-Заимский»</t>
+  </si>
+  <si>
+    <t>P_760</t>
+  </si>
+  <si>
+    <t>Лесной участок  «Кичерский»</t>
+  </si>
+  <si>
+    <t>P_762</t>
+  </si>
+  <si>
+    <t>Лесной участок  «Куморский»</t>
+  </si>
+  <si>
+    <t>P_763</t>
+  </si>
+  <si>
+    <t>Лесной участок  «Ново-Уоянский»</t>
+  </si>
+  <si>
+    <t>P_759</t>
+  </si>
+  <si>
+    <t>Лесной участок «Северобайкальский»</t>
+  </si>
+  <si>
+    <t>P_765</t>
+  </si>
+  <si>
+    <t>Лесной участок  «Томпа»</t>
+  </si>
+  <si>
+    <t>P_757</t>
+  </si>
+  <si>
+    <t>Лесной участок  «Тыйский»</t>
+  </si>
+  <si>
+    <t>G_U4928</t>
+  </si>
+  <si>
+    <t>Максимихинское</t>
+  </si>
+  <si>
+    <t>G_U4779</t>
+  </si>
+  <si>
+    <t>Мангиртуйское</t>
+  </si>
+  <si>
+    <t>G_U4823</t>
+  </si>
+  <si>
+    <t>Михайловское</t>
+  </si>
+  <si>
+    <t>G_U4933</t>
+  </si>
+  <si>
+    <t>G_U4863</t>
+  </si>
+  <si>
+    <t>G_00727</t>
+  </si>
+  <si>
+    <t>G_U4876</t>
+  </si>
+  <si>
+    <t>Могойтинское</t>
+  </si>
+  <si>
+    <t>G_U4810</t>
+  </si>
+  <si>
+    <t>Можайское</t>
+  </si>
+  <si>
+    <t>G_U4793</t>
+  </si>
+  <si>
+    <t>Монгойское</t>
+  </si>
+  <si>
+    <t>G_U4922</t>
+  </si>
+  <si>
+    <t>Мостовское</t>
+  </si>
+  <si>
+    <t>G_U4886</t>
+  </si>
+  <si>
+    <t>Муйское</t>
+  </si>
+  <si>
+    <t>G_U4895</t>
+  </si>
+  <si>
+    <t>Мухоршибирское</t>
+  </si>
+  <si>
+    <t>G_U4898</t>
+  </si>
+  <si>
+    <t>Мухоршибирское сельское</t>
+  </si>
+  <si>
+    <t>G_U4887</t>
+  </si>
+  <si>
+    <t>Муяканское</t>
+  </si>
+  <si>
+    <t>G_U4803</t>
+  </si>
+  <si>
+    <t>Нарынское</t>
+  </si>
+  <si>
+    <t>G_U4881</t>
+  </si>
+  <si>
+    <t>Наушкинское</t>
+  </si>
+  <si>
+    <t>G_U4851</t>
+  </si>
+  <si>
+    <t>Нижне-Кудунское</t>
+  </si>
+  <si>
+    <t>G_U4794</t>
+  </si>
+  <si>
+    <t>Нижнеципское</t>
+  </si>
+  <si>
+    <t>G_U4864</t>
+  </si>
+  <si>
+    <t>Нижне-Чесанское</t>
+  </si>
+  <si>
+    <t>G_U4916</t>
+  </si>
+  <si>
+    <t>G_00738</t>
+  </si>
+  <si>
+    <t>Новоселенгинское</t>
+  </si>
+  <si>
+    <t>G_U4870</t>
+  </si>
+  <si>
+    <t>Ойбонтовское</t>
+  </si>
+  <si>
+    <t>G_U4776</t>
+  </si>
+  <si>
+    <t>Окино-Ключевское</t>
+  </si>
+  <si>
+    <t>G_U4901</t>
+  </si>
+  <si>
+    <t>G_00734</t>
+  </si>
+  <si>
+    <t>Окинское сельское</t>
+  </si>
+  <si>
+    <t>P_796</t>
+  </si>
+  <si>
+    <t>G_U4939</t>
+  </si>
+  <si>
+    <t>Онинское</t>
+  </si>
+  <si>
+    <t>G_U4817</t>
+  </si>
+  <si>
+    <t>Онохойское</t>
+  </si>
+  <si>
+    <t>G_U4899</t>
+  </si>
+  <si>
+    <t>Орликское</t>
+  </si>
+  <si>
+    <t>G_U4840</t>
+  </si>
+  <si>
+    <t>Оронгойское</t>
+  </si>
+  <si>
+    <t>G_U4888</t>
+  </si>
+  <si>
+    <t>Парамское</t>
+  </si>
+  <si>
+    <t>G_U4804</t>
+  </si>
+  <si>
+    <t>Пограничное</t>
+  </si>
+  <si>
+    <t>G_U4904</t>
+  </si>
+  <si>
+    <t>Покровское</t>
+  </si>
+  <si>
+    <t>G_U4780</t>
+  </si>
+  <si>
+    <t>Потанинское</t>
+  </si>
+  <si>
+    <t>G_U4913</t>
+  </si>
+  <si>
+    <t>Прибайкальское</t>
+  </si>
+  <si>
+    <t>G_U4906</t>
+  </si>
+  <si>
+    <t>Прибайкальское сельское</t>
+  </si>
+  <si>
+    <t>G_U4910</t>
+  </si>
+  <si>
+    <t>Романовское</t>
+  </si>
+  <si>
+    <t>G_U4824</t>
+  </si>
+  <si>
+    <t>Санагинское</t>
+  </si>
+  <si>
+    <t>G_U4787</t>
+  </si>
+  <si>
+    <t>Санномысское</t>
+  </si>
+  <si>
+    <t>G_U4862</t>
+  </si>
+  <si>
+    <t>Сантыринское</t>
+  </si>
+  <si>
+    <t>G_U4831</t>
+  </si>
+  <si>
+    <t>Саянтуйское</t>
+  </si>
+  <si>
+    <t>G_U4914</t>
+  </si>
+  <si>
+    <t>Северо-Байкальское</t>
+  </si>
+  <si>
+    <t>G_U4889</t>
+  </si>
+  <si>
+    <t>Северомуйское</t>
+  </si>
+  <si>
+    <t>G_U4845</t>
+  </si>
+  <si>
+    <t>Селенгинское</t>
+  </si>
+  <si>
+    <t>G_U4917</t>
+  </si>
+  <si>
+    <t>G_U4919</t>
+  </si>
+  <si>
+    <t>Селенгинское сельское</t>
+  </si>
+  <si>
+    <t>G_U4900</t>
+  </si>
+  <si>
+    <t>Сорокское</t>
+  </si>
+  <si>
+    <t>G_U4811</t>
+  </si>
+  <si>
+    <t>Сосново-Озерское</t>
+  </si>
+  <si>
+    <t>G_U4846</t>
+  </si>
+  <si>
+    <t>Степно-Дворецкое</t>
+  </si>
+  <si>
+    <t>G_U4882</t>
+  </si>
+  <si>
+    <t>Степное</t>
+  </si>
+  <si>
+    <t>G_U4852</t>
+  </si>
+  <si>
+    <t>Сулхаринское</t>
+  </si>
+  <si>
+    <t>G_U4847</t>
+  </si>
+  <si>
+    <t>Сухинское</t>
+  </si>
+  <si>
+    <t>G_U4890</t>
+  </si>
+  <si>
+    <t>Таксимовское</t>
+  </si>
+  <si>
+    <t>G_U4832</t>
+  </si>
+  <si>
+    <t>Талецкое</t>
+  </si>
+  <si>
+    <t>P_93</t>
+  </si>
+  <si>
+    <t>Талецкое участковое</t>
+  </si>
+  <si>
+    <t>G_U4760</t>
+  </si>
+  <si>
+    <t>Танхойское</t>
+  </si>
+  <si>
+    <t>G_U4833</t>
+  </si>
+  <si>
+    <t>Тарбагатайское</t>
+  </si>
+  <si>
+    <t>G_U4835</t>
+  </si>
+  <si>
+    <t>Тарбагатайское сельское</t>
+  </si>
+  <si>
+    <t>G_U4905</t>
+  </si>
+  <si>
+    <t>Татауровское</t>
+  </si>
+  <si>
+    <t>G_U4798</t>
+  </si>
+  <si>
+    <t>Темниковское</t>
+  </si>
+  <si>
+    <t>G_U4853</t>
+  </si>
+  <si>
+    <t>Тендитское</t>
+  </si>
+  <si>
+    <t>G_U4805</t>
+  </si>
+  <si>
+    <t>Торейское</t>
+  </si>
+  <si>
+    <t>G_U4896</t>
+  </si>
+  <si>
+    <t>Тугнуйское</t>
+  </si>
+  <si>
+    <t>G_U4812</t>
+  </si>
+  <si>
+    <t>Тужинское</t>
+  </si>
+  <si>
+    <t>P_427</t>
+  </si>
+  <si>
+    <t>Туранское</t>
+  </si>
+  <si>
+    <t>G_U4766</t>
+  </si>
+  <si>
+    <t>Туркинское</t>
+  </si>
+  <si>
+    <t>G_U4868</t>
+  </si>
+  <si>
+    <t>Турокчанское</t>
+  </si>
+  <si>
+    <t>G_U4871</t>
+  </si>
+  <si>
+    <t>Тэгдинское</t>
+  </si>
+  <si>
+    <t>G_U4795</t>
+  </si>
+  <si>
+    <t>Уакитское</t>
+  </si>
+  <si>
+    <t>G_U4799</t>
+  </si>
+  <si>
+    <t>Убукунское</t>
+  </si>
+  <si>
+    <t>G_U4788</t>
+  </si>
+  <si>
+    <t>Удинское</t>
+  </si>
+  <si>
+    <t>G_U4892</t>
+  </si>
+  <si>
+    <t>Улан-Макитское</t>
+  </si>
+  <si>
+    <t>G_U4769</t>
+  </si>
+  <si>
+    <t>Улюнское</t>
+  </si>
+  <si>
+    <t>G_U4818</t>
+  </si>
+  <si>
+    <t>Унэгэтэйское</t>
+  </si>
+  <si>
+    <t>G_U4925</t>
+  </si>
+  <si>
+    <t>Уоянское</t>
+  </si>
+  <si>
+    <t>G_U4770</t>
+  </si>
+  <si>
+    <t>Уринское</t>
+  </si>
+  <si>
+    <t>G_U4800</t>
+  </si>
+  <si>
+    <t>Урминское</t>
+  </si>
+  <si>
+    <t>G_U4929</t>
+  </si>
+  <si>
+    <t>Усть-Баргузинское</t>
+  </si>
+  <si>
+    <t>G_U4819</t>
+  </si>
+  <si>
+    <t>Усть-Брянское</t>
+  </si>
+  <si>
+    <t>P_462</t>
+  </si>
+  <si>
+    <t>P_129</t>
+  </si>
+  <si>
+    <t>Хамар-Дабанское</t>
+  </si>
+  <si>
+    <t>G_U4789</t>
+  </si>
+  <si>
+    <t>Хандагайское</t>
+  </si>
+  <si>
+    <t>G_U4934</t>
+  </si>
+  <si>
+    <t>Хандагатайское</t>
+  </si>
+  <si>
+    <t>G_U4834</t>
+  </si>
+  <si>
+    <t>Харитоновское</t>
+  </si>
+  <si>
+    <t>G_U4872</t>
+  </si>
+  <si>
+    <t>Хасуртайское</t>
+  </si>
+  <si>
+    <t>G_U4897</t>
+  </si>
+  <si>
+    <t>Хонхолойское</t>
+  </si>
+  <si>
+    <t>G_U4940</t>
+  </si>
+  <si>
+    <t>Хоринское</t>
+  </si>
+  <si>
+    <t>G_U4941</t>
+  </si>
+  <si>
+    <t>Хоринское сельское</t>
+  </si>
+  <si>
+    <t>G_U4865</t>
+  </si>
+  <si>
+    <t>Хуртэйское</t>
+  </si>
+  <si>
+    <t>G_U4825</t>
+  </si>
+  <si>
+    <t>Цаган-Моринское</t>
+  </si>
+  <si>
+    <t>G_U4826</t>
+  </si>
+  <si>
+    <t>Цакирское</t>
+  </si>
+  <si>
+    <t>G_U4935</t>
+  </si>
+  <si>
+    <t>Челутаевское</t>
+  </si>
+  <si>
+    <t>G_U4859</t>
+  </si>
+  <si>
+    <t>Черемушкинское</t>
+  </si>
+  <si>
+    <t>G_U4866</t>
+  </si>
+  <si>
+    <t>Чесанское</t>
+  </si>
+  <si>
+    <t>G_U4761</t>
+  </si>
+  <si>
+    <t>Чеховское</t>
+  </si>
+  <si>
+    <t>P_421</t>
+  </si>
+  <si>
+    <t>Чивыркуйское</t>
+  </si>
+  <si>
+    <t>G_U4883</t>
+  </si>
+  <si>
+    <t>Чикойское</t>
+  </si>
+  <si>
+    <t>G_U4918</t>
+  </si>
+  <si>
+    <t>G_U4926</t>
+  </si>
+  <si>
+    <t>Чильчигирское</t>
+  </si>
+  <si>
+    <t>G_U4771</t>
+  </si>
+  <si>
+    <t>Читканское</t>
+  </si>
+  <si>
+    <t>G_U4930</t>
+  </si>
+  <si>
+    <t>Шанталыкское</t>
+  </si>
+  <si>
+    <t>G_U4827</t>
+  </si>
+  <si>
+    <t>Шара-Азаргинское</t>
+  </si>
+  <si>
+    <t>G_U4781</t>
+  </si>
+  <si>
+    <t>Шибертуйское</t>
+  </si>
+  <si>
+    <t>G_U4915</t>
+  </si>
+  <si>
+    <t>Язовкинское</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,6 +4791,2946 @@
       </c>
       <c r="D147" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>335</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>336</v>
+      </c>
+      <c r="D148" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>338</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>339</v>
+      </c>
+      <c r="D149" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>341</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>342</v>
+      </c>
+      <c r="D150" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>344</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>345</v>
+      </c>
+      <c r="D151" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>348</v>
+      </c>
+      <c r="D152" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>350</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>351</v>
+      </c>
+      <c r="D153" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>353</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>354</v>
+      </c>
+      <c r="D154" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>357</v>
+      </c>
+      <c r="D155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>358</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>359</v>
+      </c>
+      <c r="D156" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>361</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>362</v>
+      </c>
+      <c r="D157" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>364</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>365</v>
+      </c>
+      <c r="D158" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>367</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>368</v>
+      </c>
+      <c r="D159" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>370</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>371</v>
+      </c>
+      <c r="D160" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>372</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>373</v>
+      </c>
+      <c r="D161" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>375</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>376</v>
+      </c>
+      <c r="D162" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>378</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>376</v>
+      </c>
+      <c r="D163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>380</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>362</v>
+      </c>
+      <c r="D164" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>382</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>383</v>
+      </c>
+      <c r="D165" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>385</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>386</v>
+      </c>
+      <c r="D166" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>387</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>388</v>
+      </c>
+      <c r="D167" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>390</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>391</v>
+      </c>
+      <c r="D168" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>393</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>396</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>394</v>
+      </c>
+      <c r="D170" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>398</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>399</v>
+      </c>
+      <c r="D171" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>401</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>365</v>
+      </c>
+      <c r="D172" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>403</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>404</v>
+      </c>
+      <c r="D173" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>406</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>407</v>
+      </c>
+      <c r="D174" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>409</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>362</v>
+      </c>
+      <c r="D175" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>411</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>412</v>
+      </c>
+      <c r="D176" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>414</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>388</v>
+      </c>
+      <c r="D177" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>416</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>368</v>
+      </c>
+      <c r="D178" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>418</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>345</v>
+      </c>
+      <c r="D179" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>420</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>421</v>
+      </c>
+      <c r="D180" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>423</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>336</v>
+      </c>
+      <c r="D181" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>425</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>426</v>
+      </c>
+      <c r="D182" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>428</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>373</v>
+      </c>
+      <c r="D183" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>429</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>430</v>
+      </c>
+      <c r="D184" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>432</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>359</v>
+      </c>
+      <c r="D185" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>434</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>351</v>
+      </c>
+      <c r="D186" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>436</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>437</v>
+      </c>
+      <c r="D187" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>439</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>440</v>
+      </c>
+      <c r="D188" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>442</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>371</v>
+      </c>
+      <c r="D189" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>444</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>404</v>
+      </c>
+      <c r="D190" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>446</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>448</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>345</v>
+      </c>
+      <c r="D192" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>450</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>451</v>
+      </c>
+      <c r="D193" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>453</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>440</v>
+      </c>
+      <c r="D194" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>455</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>456</v>
+      </c>
+      <c r="D195" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>458</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>459</v>
+      </c>
+      <c r="D196" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>461</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>412</v>
+      </c>
+      <c r="D197" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>463</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>464</v>
+      </c>
+      <c r="D198" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>466</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>464</v>
+      </c>
+      <c r="D199" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>468</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>426</v>
+      </c>
+      <c r="D200" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>470</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>339</v>
+      </c>
+      <c r="D201" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>472</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>473</v>
+      </c>
+      <c r="D202" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>475</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>339</v>
+      </c>
+      <c r="D203" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>477</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>451</v>
+      </c>
+      <c r="D204" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>479</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>451</v>
+      </c>
+      <c r="D205" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>481</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>482</v>
+      </c>
+      <c r="D206" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>484</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>456</v>
+      </c>
+      <c r="D207" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>486</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>451</v>
+      </c>
+      <c r="D208" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>488</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>473</v>
+      </c>
+      <c r="D209" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>490</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>473</v>
+      </c>
+      <c r="D210" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>492</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>383</v>
+      </c>
+      <c r="D211" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>494</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>383</v>
+      </c>
+      <c r="D212" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>496</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>482</v>
+      </c>
+      <c r="D213" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>498</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>354</v>
+      </c>
+      <c r="D214" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>500</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>336</v>
+      </c>
+      <c r="D215" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>502</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>440</v>
+      </c>
+      <c r="D216" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>504</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>440</v>
+      </c>
+      <c r="D217" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>506</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>473</v>
+      </c>
+      <c r="D218" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>508</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>376</v>
+      </c>
+      <c r="D219" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>509</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>510</v>
+      </c>
+      <c r="D220" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>512</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>513</v>
+      </c>
+      <c r="D221" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>515</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>510</v>
+      </c>
+      <c r="D222" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>517</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>464</v>
+      </c>
+      <c r="D223" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>519</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>365</v>
+      </c>
+      <c r="D224" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>521</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>440</v>
+      </c>
+      <c r="D225" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>523</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>437</v>
+      </c>
+      <c r="D226" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>525</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>365</v>
+      </c>
+      <c r="D227" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>527</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>528</v>
+      </c>
+      <c r="D228" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>530</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>531</v>
+      </c>
+      <c r="D229" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>533</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>531</v>
+      </c>
+      <c r="D230" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>535</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>345</v>
+      </c>
+      <c r="D231" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>537</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>394</v>
+      </c>
+      <c r="D232" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>539</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>342</v>
+      </c>
+      <c r="D233" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>541</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>359</v>
+      </c>
+      <c r="D234" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>543</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>513</v>
+      </c>
+      <c r="D235" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>545</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>342</v>
+      </c>
+      <c r="D236" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>547</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>371</v>
+      </c>
+      <c r="D237" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>549</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>399</v>
+      </c>
+      <c r="D238" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>551</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>339</v>
+      </c>
+      <c r="D239" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>553</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>342</v>
+      </c>
+      <c r="D240" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>555</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>394</v>
+      </c>
+      <c r="D241" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>557</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>351</v>
+      </c>
+      <c r="D242" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>559</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>351</v>
+      </c>
+      <c r="D243" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>561</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>426</v>
+      </c>
+      <c r="D244" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>563</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>354</v>
+      </c>
+      <c r="D245" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>565</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>399</v>
+      </c>
+      <c r="D246" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>567</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>399</v>
+      </c>
+      <c r="D247" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>569</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>570</v>
+      </c>
+      <c r="D248" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>572</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>531</v>
+      </c>
+      <c r="D249" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>574</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>430</v>
+      </c>
+      <c r="D250" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>576</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>430</v>
+      </c>
+      <c r="D251" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>578</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+      <c r="C252" t="s">
+        <v>430</v>
+      </c>
+      <c r="D252" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>580</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>430</v>
+      </c>
+      <c r="D253" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>582</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>430</v>
+      </c>
+      <c r="D254" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>584</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>430</v>
+      </c>
+      <c r="D255" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>586</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>430</v>
+      </c>
+      <c r="D256" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>588</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>430</v>
+      </c>
+      <c r="D257" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>590</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258" t="s">
+        <v>459</v>
+      </c>
+      <c r="D258" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>592</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>407</v>
+      </c>
+      <c r="D259" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>594</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>383</v>
+      </c>
+      <c r="D260" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>596</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261" t="s">
+        <v>404</v>
+      </c>
+      <c r="D261" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>597</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>598</v>
+      </c>
+      <c r="D262" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>599</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>351</v>
+      </c>
+      <c r="D263" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>601</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>451</v>
+      </c>
+      <c r="D264" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>603</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>362</v>
+      </c>
+      <c r="D265" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>605</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>388</v>
+      </c>
+      <c r="D266" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>607</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
+        <v>373</v>
+      </c>
+      <c r="D267" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>609</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>437</v>
+      </c>
+      <c r="D268" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>611</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>437</v>
+      </c>
+      <c r="D269" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>613</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>373</v>
+      </c>
+      <c r="D270" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>615</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
+        <v>464</v>
+      </c>
+      <c r="D271" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>617</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>399</v>
+      </c>
+      <c r="D272" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>619</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>531</v>
+      </c>
+      <c r="D273" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>621</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>362</v>
+      </c>
+      <c r="D274" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>623</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>598</v>
+      </c>
+      <c r="D275" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>625</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>626</v>
+      </c>
+      <c r="D276" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>628</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>421</v>
+      </c>
+      <c r="D277" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>630</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>394</v>
+      </c>
+      <c r="D278" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>632</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>633</v>
+      </c>
+      <c r="D279" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>635</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>357</v>
+      </c>
+      <c r="D280" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>636</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>336</v>
+      </c>
+      <c r="D281" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>638</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>473</v>
+      </c>
+      <c r="D282" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>640</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>633</v>
+      </c>
+      <c r="D283" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>642</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>440</v>
+      </c>
+      <c r="D284" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>644</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>373</v>
+      </c>
+      <c r="D285" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>646</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>464</v>
+      </c>
+      <c r="D286" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>648</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>510</v>
+      </c>
+      <c r="D287" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>650</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>407</v>
+      </c>
+      <c r="D288" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>652</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>368</v>
+      </c>
+      <c r="D289" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>654</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>510</v>
+      </c>
+      <c r="D290" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>656</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>426</v>
+      </c>
+      <c r="D291" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>658</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>383</v>
+      </c>
+      <c r="D292" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>660</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>528</v>
+      </c>
+      <c r="D293" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>662</v>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294" t="s">
+        <v>513</v>
+      </c>
+      <c r="D294" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>664</v>
+      </c>
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>482</v>
+      </c>
+      <c r="D295" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>666</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>368</v>
+      </c>
+      <c r="D296" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>668</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>373</v>
+      </c>
+      <c r="D297" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>670</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>365</v>
+      </c>
+      <c r="D298" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>672</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>626</v>
+      </c>
+      <c r="D299" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>673</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>626</v>
+      </c>
+      <c r="D300" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>675</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>633</v>
+      </c>
+      <c r="D301" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>677</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302" t="s">
+        <v>451</v>
+      </c>
+      <c r="D302" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>679</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>365</v>
+      </c>
+      <c r="D303" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>681</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304" t="s">
+        <v>399</v>
+      </c>
+      <c r="D304" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>683</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>531</v>
+      </c>
+      <c r="D305" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>685</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>365</v>
+      </c>
+      <c r="D306" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>687</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>373</v>
+      </c>
+      <c r="D307" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>689</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308" t="s">
+        <v>482</v>
+      </c>
+      <c r="D308" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>691</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>570</v>
+      </c>
+      <c r="D309" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>693</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310" t="s">
+        <v>359</v>
+      </c>
+      <c r="D310" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>695</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311" t="s">
+        <v>482</v>
+      </c>
+      <c r="D311" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>697</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312" t="s">
+        <v>482</v>
+      </c>
+      <c r="D312" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>699</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313" t="s">
+        <v>510</v>
+      </c>
+      <c r="D313" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>701</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314" t="s">
+        <v>456</v>
+      </c>
+      <c r="D314" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>703</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315" t="s">
+        <v>531</v>
+      </c>
+      <c r="D315" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>705</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316" t="s">
+        <v>464</v>
+      </c>
+      <c r="D316" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>707</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317" t="s">
+        <v>437</v>
+      </c>
+      <c r="D317" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>709</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
+        <v>451</v>
+      </c>
+      <c r="D318" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>711</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>354</v>
+      </c>
+      <c r="D319" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>713</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320" t="s">
+        <v>371</v>
+      </c>
+      <c r="D320" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>715</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>386</v>
+      </c>
+      <c r="D321" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>717</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" t="s">
+        <v>421</v>
+      </c>
+      <c r="D322" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>719</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
+        <v>362</v>
+      </c>
+      <c r="D323" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>721</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324" t="s">
+        <v>456</v>
+      </c>
+      <c r="D324" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>723</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325" t="s">
+        <v>528</v>
+      </c>
+      <c r="D325" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>725</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>373</v>
+      </c>
+      <c r="D326" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>727</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327" t="s">
+        <v>376</v>
+      </c>
+      <c r="D327" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>729</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328" t="s">
+        <v>473</v>
+      </c>
+      <c r="D328" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>731</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329" t="s">
+        <v>412</v>
+      </c>
+      <c r="D329" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>733</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330" t="s">
+        <v>376</v>
+      </c>
+      <c r="D330" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>735</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331" t="s">
+        <v>456</v>
+      </c>
+      <c r="D331" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>737</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332" t="s">
+        <v>459</v>
+      </c>
+      <c r="D332" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>739</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333" t="s">
+        <v>473</v>
+      </c>
+      <c r="D333" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>741</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334" t="s">
+        <v>742</v>
+      </c>
+      <c r="D334" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>744</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335" t="s">
+        <v>528</v>
+      </c>
+      <c r="D335" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>746</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336" t="s">
+        <v>404</v>
+      </c>
+      <c r="D336" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>748</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
+        <v>482</v>
+      </c>
+      <c r="D337" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>750</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
+        <v>421</v>
+      </c>
+      <c r="D338" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>752</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
+        <v>437</v>
+      </c>
+      <c r="D339" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>754</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>336</v>
+      </c>
+      <c r="D340" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>756</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>336</v>
+      </c>
+      <c r="D341" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>758</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342" t="s">
+        <v>598</v>
+      </c>
+      <c r="D342" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>760</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>383</v>
+      </c>
+      <c r="D343" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>762</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
+        <v>383</v>
+      </c>
+      <c r="D344" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>764</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>404</v>
+      </c>
+      <c r="D345" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>766</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>345</v>
+      </c>
+      <c r="D346" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>768</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347" t="s">
+        <v>598</v>
+      </c>
+      <c r="D347" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>770</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348" t="s">
+        <v>359</v>
+      </c>
+      <c r="D348" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>772</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>348</v>
+      </c>
+      <c r="D349" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>774</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350" t="s">
+        <v>399</v>
+      </c>
+      <c r="D350" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>776</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351" t="s">
+        <v>626</v>
+      </c>
+      <c r="D351" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>777</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352" t="s">
+        <v>412</v>
+      </c>
+      <c r="D352" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>779</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353" t="s">
+        <v>376</v>
+      </c>
+      <c r="D353" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>781</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354" t="s">
+        <v>459</v>
+      </c>
+      <c r="D354" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>783</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>383</v>
+      </c>
+      <c r="D355" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>785</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356" t="s">
+        <v>407</v>
+      </c>
+      <c r="D356" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>787</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357" t="s">
+        <v>368</v>
+      </c>
+      <c r="D357" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
